--- a/Code/Results/Cases/Case_5_177/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_177/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.24752533316889</v>
+        <v>28.72393179789166</v>
       </c>
       <c r="C2">
-        <v>13.09709201452176</v>
+        <v>9.74716779482066</v>
       </c>
       <c r="D2">
-        <v>6.013173725496642</v>
+        <v>4.276585547397774</v>
       </c>
       <c r="E2">
-        <v>5.518987457792079</v>
+        <v>9.782116337054427</v>
       </c>
       <c r="F2">
-        <v>66.84038728211921</v>
+        <v>66.80697039126721</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.774017376682447</v>
+        <v>10.43950258765039</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>6.489700940969953</v>
+        <v>12.05500587233369</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.90441531182652</v>
+        <v>28.61399692459371</v>
       </c>
       <c r="C3">
-        <v>12.10087249244247</v>
+        <v>9.534477755564742</v>
       </c>
       <c r="D3">
-        <v>5.68776217458738</v>
+        <v>4.146541706473907</v>
       </c>
       <c r="E3">
-        <v>5.53999856370947</v>
+        <v>9.794217008429589</v>
       </c>
       <c r="F3">
-        <v>63.79768151002801</v>
+        <v>66.08808740486724</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.753411965042526</v>
+        <v>10.44178200816691</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.450030819930013</v>
+        <v>12.09639430508557</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.07349433727315</v>
+        <v>28.55689149624353</v>
       </c>
       <c r="C4">
-        <v>11.46395529739869</v>
+        <v>9.407063702295341</v>
       </c>
       <c r="D4">
-        <v>5.483971251701504</v>
+        <v>4.064582800198115</v>
       </c>
       <c r="E4">
-        <v>5.553791048732656</v>
+        <v>9.802104641717801</v>
       </c>
       <c r="F4">
-        <v>61.91617684118975</v>
+        <v>65.65189230553317</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.742366796228414</v>
+        <v>10.44364368826178</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.431830226674527</v>
+        <v>12.12426386912827</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.73356940006051</v>
+        <v>28.53625169539993</v>
       </c>
       <c r="C5">
-        <v>11.19784466481434</v>
+        <v>9.35603993239269</v>
       </c>
       <c r="D5">
-        <v>5.399917940932827</v>
+        <v>4.030685727209747</v>
       </c>
       <c r="E5">
-        <v>5.55963156142971</v>
+        <v>9.805434356480255</v>
       </c>
       <c r="F5">
-        <v>61.14632883943663</v>
+        <v>65.47556705947595</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.738244148078161</v>
+        <v>10.44451826866739</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.425898803085688</v>
+        <v>12.1362385036599</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.67705499718821</v>
+        <v>28.53298380999409</v>
       </c>
       <c r="C6">
-        <v>11.15325509764208</v>
+        <v>9.347624623434626</v>
       </c>
       <c r="D6">
-        <v>5.385900371819524</v>
+        <v>4.025028065369135</v>
       </c>
       <c r="E6">
-        <v>5.560614551084885</v>
+        <v>9.805994235110534</v>
       </c>
       <c r="F6">
-        <v>61.01831727852309</v>
+        <v>65.44637804293779</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.737581730972477</v>
+        <v>10.44467048606404</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.425001833227233</v>
+        <v>12.13826417438762</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.06891491387507</v>
+        <v>28.55660246749541</v>
       </c>
       <c r="C7">
-        <v>11.46039327013133</v>
+        <v>9.406371809385623</v>
       </c>
       <c r="D7">
-        <v>5.482841748290398</v>
+        <v>4.064127624221029</v>
       </c>
       <c r="E7">
-        <v>5.553868930295774</v>
+        <v>9.802149079559392</v>
       </c>
       <c r="F7">
-        <v>61.90580662476663</v>
+        <v>65.64950838521656</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.742309697031046</v>
+        <v>10.44365501411513</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.431744299601982</v>
+        <v>12.12442286306488</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.78583454430656</v>
+        <v>28.68388029844533</v>
       </c>
       <c r="C8">
-        <v>12.75869353484896</v>
+        <v>9.673232263809201</v>
       </c>
       <c r="D8">
-        <v>5.901790742845654</v>
+        <v>4.23220353672086</v>
       </c>
       <c r="E8">
-        <v>5.526044218347334</v>
+        <v>9.786193835926969</v>
       </c>
       <c r="F8">
-        <v>65.79409295217505</v>
+        <v>66.55809279230851</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.766562951783428</v>
+        <v>10.44019245891559</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.474705997973169</v>
+        <v>12.0687665288739</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.09816174407762</v>
+        <v>29.0150082774443</v>
       </c>
       <c r="C9">
-        <v>15.11587459996269</v>
+        <v>10.21740486231168</v>
       </c>
       <c r="D9">
-        <v>6.692996867766103</v>
+        <v>4.543739281661184</v>
       </c>
       <c r="E9">
-        <v>5.4787987406259</v>
+        <v>9.758523066601363</v>
       </c>
       <c r="F9">
-        <v>73.31429894681659</v>
+        <v>68.37569425621032</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.828175548773681</v>
+        <v>10.43708166561301</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>6.610837117758221</v>
+        <v>11.97913038574781</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.61200556514385</v>
+        <v>29.30647077796392</v>
       </c>
       <c r="C10">
-        <v>16.75157598851318</v>
+        <v>10.62419420524044</v>
       </c>
       <c r="D10">
-        <v>7.259308795169265</v>
+        <v>4.760050035971784</v>
       </c>
       <c r="E10">
-        <v>5.448999473776622</v>
+        <v>9.740378253038157</v>
       </c>
       <c r="F10">
-        <v>78.79368762865253</v>
+        <v>69.72556874423755</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.884106096311222</v>
+        <v>10.43705738439145</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>6.747134629098146</v>
+        <v>11.92518198382256</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.81815497458757</v>
+        <v>29.44912663668646</v>
       </c>
       <c r="C11">
-        <v>17.4801164161188</v>
+        <v>10.80961680102561</v>
       </c>
       <c r="D11">
-        <v>7.515007814298137</v>
+        <v>4.855444979789064</v>
       </c>
       <c r="E11">
-        <v>5.436653263265004</v>
+        <v>9.732593851312</v>
       </c>
       <c r="F11">
-        <v>81.28601738755464</v>
+        <v>70.34120785380037</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.912434725744252</v>
+        <v>10.43754127291909</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>6.818225632452846</v>
+        <v>11.90322837060306</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.2729411427184</v>
+        <v>29.50455575985173</v>
       </c>
       <c r="C12">
-        <v>17.75430661333186</v>
+        <v>10.87979501633352</v>
       </c>
       <c r="D12">
-        <v>7.611713339549088</v>
+        <v>4.891116087259291</v>
       </c>
       <c r="E12">
-        <v>5.432168565382484</v>
+        <v>9.729713325611939</v>
       </c>
       <c r="F12">
-        <v>82.23099834256286</v>
+        <v>70.57442545900111</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.923634889270291</v>
+        <v>10.43779597958907</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>6.846573302666379</v>
+        <v>11.89528750099568</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.17506914027505</v>
+        <v>29.49255612304256</v>
       </c>
       <c r="C13">
-        <v>17.69532028275857</v>
+        <v>10.86468393055557</v>
       </c>
       <c r="D13">
-        <v>7.590888600401476</v>
+        <v>4.883454123037623</v>
       </c>
       <c r="E13">
-        <v>5.433125635816189</v>
+        <v>9.73033071166264</v>
       </c>
       <c r="F13">
-        <v>82.02740280796864</v>
+        <v>70.5241961283603</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.921200672337346</v>
+        <v>10.43773794065436</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>6.840402509043241</v>
+        <v>11.89698113717173</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.85560521544432</v>
+        <v>29.45365883250085</v>
       </c>
       <c r="C14">
-        <v>17.50270462314975</v>
+        <v>10.81539165394378</v>
       </c>
       <c r="D14">
-        <v>7.522965251812379</v>
+        <v>4.858388849998764</v>
       </c>
       <c r="E14">
-        <v>5.436280373909851</v>
+        <v>9.732355522438702</v>
       </c>
       <c r="F14">
-        <v>81.3637291686946</v>
+        <v>70.36039382115879</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.913346326342867</v>
+        <v>10.43756079375465</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>6.820528446836629</v>
+        <v>11.90256760323457</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.65969258131477</v>
+        <v>29.43001532191356</v>
       </c>
       <c r="C15">
-        <v>17.38451955726696</v>
+        <v>10.78519124852999</v>
       </c>
       <c r="D15">
-        <v>7.481349616084165</v>
+        <v>4.84297609327333</v>
       </c>
       <c r="E15">
-        <v>5.4382381281961</v>
+        <v>9.733604527880974</v>
       </c>
       <c r="F15">
-        <v>80.95740838537517</v>
+        <v>70.26006761568047</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.908598772929047</v>
+        <v>10.43746160228405</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>6.808544784555217</v>
+        <v>11.90603799447779</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.5328665693777</v>
+        <v>29.29734718437883</v>
       </c>
       <c r="C16">
-        <v>16.70369538758311</v>
+        <v>10.61207600965625</v>
       </c>
       <c r="D16">
-        <v>7.242571863107225</v>
+        <v>4.75375344894919</v>
       </c>
       <c r="E16">
-        <v>5.449831986441756</v>
+        <v>9.740896409706489</v>
       </c>
       <c r="F16">
-        <v>78.63089840902869</v>
+        <v>69.68535515067938</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.8823175233704</v>
+        <v>10.43703574597426</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>6.742681350577355</v>
+        <v>11.92666880861474</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.83734029484783</v>
+        <v>29.21851124231646</v>
       </c>
       <c r="C17">
-        <v>16.2824044077543</v>
+        <v>10.50590448819024</v>
       </c>
       <c r="D17">
-        <v>7.095694734686305</v>
+        <v>4.698232947265764</v>
       </c>
       <c r="E17">
-        <v>5.457264712947064</v>
+        <v>9.745489851148138</v>
       </c>
       <c r="F17">
-        <v>77.20434001338585</v>
+        <v>69.33309253678166</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.866971838610112</v>
+        <v>10.43690147392813</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>6.704683264602752</v>
+        <v>11.93998820417358</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.44547212555309</v>
+        <v>29.17411710747684</v>
       </c>
       <c r="C18">
-        <v>16.03858747323877</v>
+        <v>10.44487758185211</v>
       </c>
       <c r="D18">
-        <v>7.011022806850129</v>
+        <v>4.666017177845855</v>
       </c>
       <c r="E18">
-        <v>5.461652454234781</v>
+        <v>9.748176110979111</v>
       </c>
       <c r="F18">
-        <v>76.38369995030845</v>
+        <v>69.13063682386466</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.858413004774684</v>
+        <v>10.43687081210848</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>6.683674990161951</v>
+        <v>11.94789272183021</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.32360007056623</v>
+        <v>29.15925036506711</v>
       </c>
       <c r="C19">
-        <v>15.95576246037191</v>
+        <v>10.42422466585992</v>
       </c>
       <c r="D19">
-        <v>6.982317324810436</v>
+        <v>4.655061731176864</v>
       </c>
       <c r="E19">
-        <v>5.463156977829433</v>
+        <v>9.749093238601347</v>
       </c>
       <c r="F19">
-        <v>76.10579350817363</v>
+        <v>69.06211988003183</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.855559494900863</v>
+        <v>10.43686841952405</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>6.676704127380575</v>
+        <v>11.95061087480817</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>28.91155890621957</v>
+        <v>29.22680539483806</v>
       </c>
       <c r="C20">
-        <v>16.3274033453828</v>
+        <v>10.51720314736451</v>
       </c>
       <c r="D20">
-        <v>7.111348952097273</v>
+        <v>4.704172526115119</v>
       </c>
       <c r="E20">
-        <v>5.456461723283509</v>
+        <v>9.744996295572056</v>
       </c>
       <c r="F20">
-        <v>77.35620453745882</v>
+        <v>69.37057630592606</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.868577331838393</v>
+        <v>10.43691094565244</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>6.708639737204153</v>
+        <v>11.93854512221052</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.94948634681763</v>
+        <v>29.46504601294554</v>
       </c>
       <c r="C21">
-        <v>17.55932156665063</v>
+        <v>10.8298717002734</v>
       </c>
       <c r="D21">
-        <v>7.542917864106519</v>
+        <v>4.865763572822805</v>
       </c>
       <c r="E21">
-        <v>5.435348423979674</v>
+        <v>9.731758963379548</v>
       </c>
       <c r="F21">
-        <v>81.55862204682887</v>
+        <v>70.40850522423531</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.915639994336091</v>
+        <v>10.43761088409564</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>6.826326145899714</v>
+        <v>11.9009166106804</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.2704406121325</v>
+        <v>29.62893925813421</v>
       </c>
       <c r="C22">
-        <v>18.3549238622592</v>
+        <v>11.0339629591102</v>
       </c>
       <c r="D22">
-        <v>7.824364839679918</v>
+        <v>4.968724881732752</v>
       </c>
       <c r="E22">
-        <v>5.422671669955071</v>
+        <v>9.723499501008849</v>
       </c>
       <c r="F22">
-        <v>84.31296697125406</v>
+        <v>71.08730405201163</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.949188733237309</v>
+        <v>10.43848504465961</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>6.911631669768161</v>
+        <v>11.87849550388937</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.56615220885376</v>
+        <v>29.54073077834026</v>
       </c>
       <c r="C23">
-        <v>17.93095831488962</v>
+        <v>10.92508763105649</v>
       </c>
       <c r="D23">
-        <v>7.674144604993371</v>
+        <v>4.91402100698331</v>
       </c>
       <c r="E23">
-        <v>5.429328048356818</v>
+        <v>9.72787196859813</v>
       </c>
       <c r="F23">
-        <v>82.84168636466072</v>
+        <v>70.72502026566926</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.931005751335488</v>
+        <v>10.43798026187737</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>6.86528908021731</v>
+        <v>11.89026327884853</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>28.87801078777893</v>
+        <v>29.2230527097328</v>
       </c>
       <c r="C24">
-        <v>16.30706438361688</v>
+        <v>10.51209497761958</v>
       </c>
       <c r="D24">
-        <v>7.104272408824573</v>
+        <v>4.701488163814618</v>
       </c>
       <c r="E24">
-        <v>5.456824399245788</v>
+        <v>9.745219290524117</v>
       </c>
       <c r="F24">
-        <v>77.28754820780716</v>
+        <v>69.35362968172275</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.86785067150061</v>
+        <v>10.43690651856879</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>6.706848416617876</v>
+        <v>11.9391967701826</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.20812552072701</v>
+        <v>28.91684298281355</v>
       </c>
       <c r="C25">
-        <v>14.49663361872136</v>
+        <v>10.06856034083797</v>
       </c>
       <c r="D25">
-        <v>6.481933549758108</v>
+        <v>4.461565550641651</v>
       </c>
       <c r="E25">
-        <v>5.49075679777216</v>
+        <v>9.765623593518544</v>
       </c>
       <c r="F25">
-        <v>71.29013444450375</v>
+        <v>67.88089990786584</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.80980477053388</v>
+        <v>10.43752743128697</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>6.568005089531563</v>
+        <v>12.00128941426054</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_177/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_177/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>28.72393179789166</v>
+        <v>24.24752533316895</v>
       </c>
       <c r="C2">
-        <v>9.74716779482066</v>
+        <v>13.09709201452172</v>
       </c>
       <c r="D2">
-        <v>4.276585547397774</v>
+        <v>6.013173725496665</v>
       </c>
       <c r="E2">
-        <v>9.782116337054427</v>
+        <v>5.518987457792075</v>
       </c>
       <c r="F2">
-        <v>66.80697039126721</v>
+        <v>66.84038728211911</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10.43950258765039</v>
+        <v>6.774017376682519</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>12.05500587233369</v>
+        <v>6.489700940970025</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>28.61399692459371</v>
+        <v>22.90441531182647</v>
       </c>
       <c r="C3">
-        <v>9.534477755564742</v>
+        <v>12.10087249244267</v>
       </c>
       <c r="D3">
-        <v>4.146541706473907</v>
+        <v>5.687762174587349</v>
       </c>
       <c r="E3">
-        <v>9.794217008429589</v>
+        <v>5.539998563709608</v>
       </c>
       <c r="F3">
-        <v>66.08808740486724</v>
+        <v>63.79768151002776</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.44178200816691</v>
+        <v>6.753411965042597</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>12.09639430508557</v>
+        <v>6.450030819929975</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>28.55689149624353</v>
+        <v>22.07349433727318</v>
       </c>
       <c r="C4">
-        <v>9.407063702295341</v>
+        <v>11.46395529739878</v>
       </c>
       <c r="D4">
-        <v>4.064582800198115</v>
+        <v>5.483971251701568</v>
       </c>
       <c r="E4">
-        <v>9.802104641717801</v>
+        <v>5.553791048732787</v>
       </c>
       <c r="F4">
-        <v>65.65189230553317</v>
+        <v>61.91617684119002</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.44364368826178</v>
+        <v>6.74236679622851</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>12.12426386912827</v>
+        <v>6.431830226674474</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>28.53625169539993</v>
+        <v>21.73356940006049</v>
       </c>
       <c r="C5">
-        <v>9.35603993239269</v>
+        <v>11.19784466481429</v>
       </c>
       <c r="D5">
-        <v>4.030685727209747</v>
+        <v>5.399917940932772</v>
       </c>
       <c r="E5">
-        <v>9.805434356480255</v>
+        <v>5.55963156142978</v>
       </c>
       <c r="F5">
-        <v>65.47556705947595</v>
+        <v>61.14632883943687</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>10.44451826866739</v>
+        <v>6.738244148078182</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>12.1362385036599</v>
+        <v>6.425898803085786</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>28.53298380999409</v>
+        <v>21.67705499718835</v>
       </c>
       <c r="C6">
-        <v>9.347624623434626</v>
+        <v>11.1532550976419</v>
       </c>
       <c r="D6">
-        <v>4.025028065369135</v>
+        <v>5.385900371819644</v>
       </c>
       <c r="E6">
-        <v>9.805994235110534</v>
+        <v>5.560614551084753</v>
       </c>
       <c r="F6">
-        <v>65.44637804293779</v>
+        <v>61.01831727852311</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>10.44467048606404</v>
+        <v>6.737581730972581</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>12.13826417438762</v>
+        <v>6.425001833227224</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>28.55660246749541</v>
+        <v>22.06891491387519</v>
       </c>
       <c r="C7">
-        <v>9.406371809385623</v>
+        <v>11.46039327013125</v>
       </c>
       <c r="D7">
-        <v>4.064127624221029</v>
+        <v>5.482841748290341</v>
       </c>
       <c r="E7">
-        <v>9.802149079559392</v>
+        <v>5.553868930295838</v>
       </c>
       <c r="F7">
-        <v>65.64950838521656</v>
+        <v>61.90580662476683</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>10.44365501411513</v>
+        <v>6.742309697031112</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>12.12442286306488</v>
+        <v>6.431744299602063</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>28.68388029844533</v>
+        <v>23.78583454430655</v>
       </c>
       <c r="C8">
-        <v>9.673232263809201</v>
+        <v>12.7586935348488</v>
       </c>
       <c r="D8">
-        <v>4.23220353672086</v>
+        <v>5.901790742845591</v>
       </c>
       <c r="E8">
-        <v>9.786193835926969</v>
+        <v>5.526044218347334</v>
       </c>
       <c r="F8">
-        <v>66.55809279230851</v>
+        <v>65.79409295217489</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>10.44019245891559</v>
+        <v>6.766562951783415</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>12.0687665288739</v>
+        <v>6.474705997973225</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.0150082774443</v>
+        <v>27.09816174407763</v>
       </c>
       <c r="C9">
-        <v>10.21740486231168</v>
+        <v>15.11587459996264</v>
       </c>
       <c r="D9">
-        <v>4.543739281661184</v>
+        <v>6.692996867765995</v>
       </c>
       <c r="E9">
-        <v>9.758523066601363</v>
+        <v>5.478798740626033</v>
       </c>
       <c r="F9">
-        <v>68.37569425621032</v>
+        <v>73.31429894681607</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.43708166561301</v>
+        <v>6.828175548773717</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>11.97913038574781</v>
+        <v>6.610837117758278</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.30647077796392</v>
+        <v>29.61200556514391</v>
       </c>
       <c r="C10">
-        <v>10.62419420524044</v>
+        <v>16.75157598851331</v>
       </c>
       <c r="D10">
-        <v>4.760050035971784</v>
+        <v>7.259308795169223</v>
       </c>
       <c r="E10">
-        <v>9.740378253038157</v>
+        <v>5.448999473776691</v>
       </c>
       <c r="F10">
-        <v>69.72556874423755</v>
+        <v>78.79368762865242</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>10.43705738439145</v>
+        <v>6.884106096311207</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>11.92518198382256</v>
+        <v>6.747134629098143</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>29.44912663668646</v>
+        <v>30.81815497458753</v>
       </c>
       <c r="C11">
-        <v>10.80961680102561</v>
+        <v>17.48011641611874</v>
       </c>
       <c r="D11">
-        <v>4.855444979789064</v>
+        <v>7.515007814298209</v>
       </c>
       <c r="E11">
-        <v>9.732593851312</v>
+        <v>5.436653263264938</v>
       </c>
       <c r="F11">
-        <v>70.34120785380037</v>
+        <v>81.28601738755469</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>10.43754127291909</v>
+        <v>6.912434725744222</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>11.90322837060306</v>
+        <v>6.818225632452868</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>29.50455575985173</v>
+        <v>31.27294114271845</v>
       </c>
       <c r="C12">
-        <v>10.87979501633352</v>
+        <v>17.75430661333201</v>
       </c>
       <c r="D12">
-        <v>4.891116087259291</v>
+        <v>7.611713339549153</v>
       </c>
       <c r="E12">
-        <v>9.729713325611939</v>
+        <v>5.432168565382619</v>
       </c>
       <c r="F12">
-        <v>70.57442545900111</v>
+        <v>82.23099834256303</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>10.43779597958907</v>
+        <v>6.923634889270389</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>11.89528750099568</v>
+        <v>6.846573302666399</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>29.49255612304256</v>
+        <v>31.17506914027505</v>
       </c>
       <c r="C13">
-        <v>10.86468393055557</v>
+        <v>17.69532028275841</v>
       </c>
       <c r="D13">
-        <v>4.883454123037623</v>
+        <v>7.590888600401471</v>
       </c>
       <c r="E13">
-        <v>9.73033071166264</v>
+        <v>5.433125635816131</v>
       </c>
       <c r="F13">
-        <v>70.5241961283603</v>
+        <v>82.02740280796846</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>10.43773794065436</v>
+        <v>6.921200672337418</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>11.89698113717173</v>
+        <v>6.840402509043277</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>29.45365883250085</v>
+        <v>30.8556052154444</v>
       </c>
       <c r="C14">
-        <v>10.81539165394378</v>
+        <v>17.50270462314977</v>
       </c>
       <c r="D14">
-        <v>4.858388849998764</v>
+        <v>7.522965251812392</v>
       </c>
       <c r="E14">
-        <v>9.732355522438702</v>
+        <v>5.436280373909987</v>
       </c>
       <c r="F14">
-        <v>70.36039382115879</v>
+        <v>81.3637291686946</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>10.43756079375465</v>
+        <v>6.91334632634287</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>11.90256760323457</v>
+        <v>6.820528446836661</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>29.43001532191356</v>
+        <v>30.65969258131472</v>
       </c>
       <c r="C15">
-        <v>10.78519124852999</v>
+        <v>17.38451955726686</v>
       </c>
       <c r="D15">
-        <v>4.84297609327333</v>
+        <v>7.481349616084159</v>
       </c>
       <c r="E15">
-        <v>9.733604527880974</v>
+        <v>5.438238128196229</v>
       </c>
       <c r="F15">
-        <v>70.26006761568047</v>
+        <v>80.957408385375</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.43746160228405</v>
+        <v>6.908598772929116</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>11.90603799447779</v>
+        <v>6.808544784555294</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.29734718437883</v>
+        <v>29.53286656937781</v>
       </c>
       <c r="C16">
-        <v>10.61207600965625</v>
+        <v>16.70369538758341</v>
       </c>
       <c r="D16">
-        <v>4.75375344894919</v>
+        <v>7.242571863107335</v>
       </c>
       <c r="E16">
-        <v>9.740896409706489</v>
+        <v>5.44983198644176</v>
       </c>
       <c r="F16">
-        <v>69.68535515067938</v>
+        <v>78.63089840902903</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10.43703574597426</v>
+        <v>6.882317523370407</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>11.92666880861474</v>
+        <v>6.742681350577239</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.21851124231646</v>
+        <v>28.83734029484795</v>
       </c>
       <c r="C17">
-        <v>10.50590448819024</v>
+        <v>16.28240440775411</v>
       </c>
       <c r="D17">
-        <v>4.698232947265764</v>
+        <v>7.095694734686296</v>
       </c>
       <c r="E17">
-        <v>9.745489851148138</v>
+        <v>5.457264712947064</v>
       </c>
       <c r="F17">
-        <v>69.33309253678166</v>
+        <v>77.20434001338585</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.43690147392813</v>
+        <v>6.866971838610134</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>11.93998820417358</v>
+        <v>6.70468326460278</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.17411710747684</v>
+        <v>28.44547212555308</v>
       </c>
       <c r="C18">
-        <v>10.44487758185211</v>
+        <v>16.03858747323876</v>
       </c>
       <c r="D18">
-        <v>4.666017177845855</v>
+        <v>7.011022806850137</v>
       </c>
       <c r="E18">
-        <v>9.748176110979111</v>
+        <v>5.461652454234911</v>
       </c>
       <c r="F18">
-        <v>69.13063682386466</v>
+        <v>76.38369995030847</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.43687081210848</v>
+        <v>6.858413004774784</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>11.94789272183021</v>
+        <v>6.683674990161985</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.15925036506711</v>
+        <v>28.32360007056624</v>
       </c>
       <c r="C19">
-        <v>10.42422466585992</v>
+        <v>15.95576246037177</v>
       </c>
       <c r="D19">
-        <v>4.655061731176864</v>
+        <v>6.982317324810468</v>
       </c>
       <c r="E19">
-        <v>9.749093238601347</v>
+        <v>5.463156977829501</v>
       </c>
       <c r="F19">
-        <v>69.06211988003183</v>
+        <v>76.10579350817379</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10.43686841952405</v>
+        <v>6.855559494900852</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>11.95061087480817</v>
+        <v>6.67670412738061</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.22680539483806</v>
+        <v>28.91155890621948</v>
       </c>
       <c r="C20">
-        <v>10.51720314736451</v>
+        <v>16.32740334538296</v>
       </c>
       <c r="D20">
-        <v>4.704172526115119</v>
+        <v>7.111348952097233</v>
       </c>
       <c r="E20">
-        <v>9.744996295572056</v>
+        <v>5.456461723283652</v>
       </c>
       <c r="F20">
-        <v>69.37057630592606</v>
+        <v>77.35620453745886</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.43691094565244</v>
+        <v>6.868577331838462</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>11.93854512221052</v>
+        <v>6.70863973720414</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>29.46504601294554</v>
+        <v>30.94948634681781</v>
       </c>
       <c r="C21">
-        <v>10.8298717002734</v>
+        <v>17.55932156665057</v>
       </c>
       <c r="D21">
-        <v>4.865763572822805</v>
+        <v>7.542917864106618</v>
       </c>
       <c r="E21">
-        <v>9.731758963379548</v>
+        <v>5.43534842397947</v>
       </c>
       <c r="F21">
-        <v>70.40850522423531</v>
+        <v>81.55862204682998</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>10.43761088409564</v>
+        <v>6.915639994336005</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>11.9009166106804</v>
+        <v>6.826326145899672</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.62893925813421</v>
+        <v>32.27044061213248</v>
       </c>
       <c r="C22">
-        <v>11.0339629591102</v>
+        <v>18.35492386225946</v>
       </c>
       <c r="D22">
-        <v>4.968724881732752</v>
+        <v>7.82436483967994</v>
       </c>
       <c r="E22">
-        <v>9.723499501008849</v>
+        <v>5.42267166995513</v>
       </c>
       <c r="F22">
-        <v>71.08730405201163</v>
+        <v>84.31296697125403</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>10.43848504465961</v>
+        <v>6.949188733237419</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>11.87849550388937</v>
+        <v>6.911631669768155</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.54073077834026</v>
+        <v>31.56615220885388</v>
       </c>
       <c r="C23">
-        <v>10.92508763105649</v>
+        <v>17.93095831488961</v>
       </c>
       <c r="D23">
-        <v>4.91402100698331</v>
+        <v>7.674144604993442</v>
       </c>
       <c r="E23">
-        <v>9.72787196859813</v>
+        <v>5.429328048356817</v>
       </c>
       <c r="F23">
-        <v>70.72502026566926</v>
+        <v>82.84168636466106</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>10.43798026187737</v>
+        <v>6.931005751335517</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>11.89026327884853</v>
+        <v>6.865289080217289</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.2230527097328</v>
+        <v>28.87801078777898</v>
       </c>
       <c r="C24">
-        <v>10.51209497761958</v>
+        <v>16.30706438361688</v>
       </c>
       <c r="D24">
-        <v>4.701488163814618</v>
+        <v>7.104272408824591</v>
       </c>
       <c r="E24">
-        <v>9.745219290524117</v>
+        <v>5.456824399245716</v>
       </c>
       <c r="F24">
-        <v>69.35362968172275</v>
+        <v>77.28754820780715</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.43690651856879</v>
+        <v>6.867850671500548</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>11.9391967701826</v>
+        <v>6.706848416617826</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.91684298281355</v>
+        <v>26.20812552072704</v>
       </c>
       <c r="C25">
-        <v>10.06856034083797</v>
+        <v>14.49663361872135</v>
       </c>
       <c r="D25">
-        <v>4.461565550641651</v>
+        <v>6.481933549758109</v>
       </c>
       <c r="E25">
-        <v>9.765623593518544</v>
+        <v>5.490756797772167</v>
       </c>
       <c r="F25">
-        <v>67.88089990786584</v>
+        <v>71.29013444450409</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.43752743128697</v>
+        <v>6.809804770533846</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>12.00128941426054</v>
+        <v>6.568005089531568</v>
       </c>
       <c r="M25">
         <v>0</v>
